--- a/Images/11Countries.xlsx
+++ b/Images/11Countries.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Haiti</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>https://www.britannica.com/place/Serbia#toc228323</t>
+  </si>
+  <si>
+    <t>World Map</t>
   </si>
 </sst>
 </file>
@@ -777,6 +780,56 @@
         <a:xfrm>
           <a:off x="39143214" y="181429"/>
           <a:ext cx="4136571" cy="2585357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577636</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6351017-14B3-4F9D-9E05-40431CA3E072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43370500" y="181429"/>
+          <a:ext cx="4668850" cy="2585357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,9 +1138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E6CBA1-2E16-4CE9-BF56-11AEB9E41A14}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1102,9 +1157,10 @@
     <col min="10" max="10" width="55.54296875" customWidth="1"/>
     <col min="11" max="11" width="56" customWidth="1"/>
     <col min="12" max="12" width="60.54296875" customWidth="1"/>
+    <col min="13" max="13" width="49.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1141,13 +1197,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="203.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="203.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1185,7 +1244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="156.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="156.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1223,7 +1282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>

--- a/Images/11Countries.xlsx
+++ b/Images/11Countries.xlsx
@@ -830,6 +830,256 @@
         <a:xfrm>
           <a:off x="43370500" y="181429"/>
           <a:ext cx="4668850" cy="2585357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51404</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3023</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5182C54-B1CC-4A28-8D1F-40F1C708A63B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771071" y="5524499"/>
+          <a:ext cx="7698619" cy="6168571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1841500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1687286</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF221BD3-3130-4FE9-9532-7970719A5428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10308167" y="5566832"/>
+          <a:ext cx="7381119" cy="6237449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3778250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3530995</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D08B08-4B9F-4DF8-93C5-CA6314DB340A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19780250" y="5397500"/>
+          <a:ext cx="7658495" cy="6121400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1708432</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB430CF-5751-4D75-A2DD-49AFE396D85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27590750" y="5397500"/>
+          <a:ext cx="5486682" cy="4508732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3660105</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>59509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73323B5-B283-4046-8674-A88745583B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31358417" y="9853083"/>
+          <a:ext cx="7544188" cy="4737343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E6CBA1-2E16-4CE9-BF56-11AEB9E41A14}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
